--- a/biology/Médecine/Nerf_du_muscle_obturateur_interne/Nerf_du_muscle_obturateur_interne.xlsx
+++ b/biology/Médecine/Nerf_du_muscle_obturateur_interne/Nerf_du_muscle_obturateur_interne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 Le nerf du muscle obturateur interne est un nerf moteur du membre inférieur.
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nerf du muscle obturateur interne est une branche collatérale de la partie antérieure du plexus sacral. Il est formé par une racine antérieure du tronc lombo-sacré issue du rameau antérieur du cinquième nerf lombaire et des rameaux antérieurs du premier et deuxième nerf sacré[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf du muscle obturateur interne est une branche collatérale de la partie antérieure du plexus sacral. Il est formé par une racine antérieure du tronc lombo-sacré issue du rameau antérieur du cinquième nerf lombaire et des rameaux antérieurs du premier et deuxième nerf sacré.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf du muscle obturateur interne sort de la cavité pelvienne par le grand foramen ischiatique sous le muscle piriforme. À ce niveau il dégage une branche à destination du muscle jumeau supérieur.
 Il contourne l'épine ischiatique en dehors des vaisseaux et nerf pudendaux, puis passe le petit foramen ischiatique.
